--- a/public/kkm.xlsx
+++ b/public/kkm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\erapor-local\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B974DA-3D62-4DAB-8020-D316BEFB6727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C0E9B6-EBB6-4848-A83A-A3DDFA83D858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{B924EE54-E644-422C-A642-8F2B7997A964}"/>
+    <workbookView xWindow="14535" yWindow="2490" windowWidth="14265" windowHeight="12495" xr2:uid="{B924EE54-E644-422C-A642-8F2B7997A964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +622,9 @@
       <c r="C12">
         <v>2006</v>
       </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -633,6 +636,9 @@
       <c r="C13">
         <v>2006</v>
       </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -644,6 +650,9 @@
       <c r="C14">
         <v>2006</v>
       </c>
+      <c r="D14">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -655,6 +664,9 @@
       <c r="C15">
         <v>2021</v>
       </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -665,6 +677,9 @@
       </c>
       <c r="C16">
         <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
